--- a/biology/Médecine/Apraxie_buccofaciale/Apraxie_buccofaciale.xlsx
+++ b/biology/Médecine/Apraxie_buccofaciale/Apraxie_buccofaciale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'apraxie buccofaciale est une perturbation de la capacité d'effectuer des mouvements de la bouche et du visage. Il s'agit de l'ensemble des mouvements et de la gesticulation du visage et de la bouche. Cette apraxie buccofaciale est facilement mise en évidence si on demande au patient de siffler, de souffler, de montrer ses dents, de claquer la langue, de mettre la bouche en cul de poule, entre autres. Dans ce cas l'individu à qui on a soumis cette épreuve présentera un assez grand nombre de difficultés à effectuer les mouvements demandés.
 L'apraxie buccofaciale est un des symptômes de la désintégration phonémique, terme créé par Alajouanine dont les synonymes parfois utilisés sont :
